--- a/collect.xlsx
+++ b/collect.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>sanjay</t>
+          <t>Tah</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -468,7 +468,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Tahr</t>
+          <t>vdfvreg</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -490,7 +490,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>vdfg</t>
+          <t>feww</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -504,6 +504,72 @@
         </is>
       </c>
       <c r="D4" t="inlineStr">
+        <is>
+          <t>--None--</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>dfr</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>--None--</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>--None--</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>--None--</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>afgeg</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>--None--</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>--None--</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>--None--</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sgfer</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>--None--</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>--None--</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>--None--</t>
         </is>
